--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3032.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3032.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146008979332611</v>
+        <v>0.958190381526947</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.771008849143982</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.801307201385498</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.61429750919342</v>
       </c>
       <c r="E1">
-        <v>1.207718851779309</v>
+        <v>0.9321849346160889</v>
       </c>
     </row>
   </sheetData>
